--- a/characters/Into_The_Abyss_XP_Tracker.xlsx
+++ b/characters/Into_The_Abyss_XP_Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Williamsburg_D-D-Group\characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B750D-44F3-43A7-ACBB-D6500DD352CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3655E6B-1D5E-413D-B192-0CEFFB824C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2004" yWindow="-108" windowWidth="21144" windowHeight="13176" xr2:uid="{BF150799-FD69-45A5-A360-A9D2B1CA8A04}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>The Knight</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Session</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8208CD27-664F-40C2-83B4-1DC6E8183A89}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,20 +434,68 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <f>SUM(B3:B49)</f>
+        <v>650</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F2" si="0">SUM(C3:C49)</f>
+        <v>650</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>500</v>
       </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2">
-        <v>300</v>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
